--- a/biology/Botanique/Dipogon_lignosus/Dipogon_lignosus.xlsx
+++ b/biology/Botanique/Dipogon_lignosus/Dipogon_lignosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipogon lignosus est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Afrique australe. C'est l'unique espèce acceptée du genre Dipogon (genre monotypique).
-Ce sont des plantes herbacées, mais aux tiges lignifiées à la base, grimpantes, vivaces dans les climats chauds, pouvant atteindre deux mètres de haut, aux feuilles trifoliées. Les fleurs, papilionacées, de couleur rose, magenta, mauve ou pourpre, sont groupées en racèmes denses portés par un long pédoncule[3].
+Ce sont des plantes herbacées, mais aux tiges lignifiées à la base, grimpantes, vivaces dans les climats chauds, pouvant atteindre deux mètres de haut, aux feuilles trifoliées. Les fleurs, papilionacées, de couleur rose, magenta, mauve ou pourpre, sont groupées en racèmes denses portés par un long pédoncule.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dolichos capensis Thunb.[4]
-Dolichos capensis sensu auct.[2]
-Dolichos gibbosus Thunb.[2] [4]
-Dolichos lignosus L.[2] [5] [4]
-Verdcourtia lignosa (L.) R. Wilczek[4]
-Verdcourtia lignosa (L.) Wilczek[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dolichos capensis Thunb.
+Dolichos capensis sensu auct.
+Dolichos gibbosus Thunb. 
+Dolichos lignosus L.  
+Verdcourtia lignosa (L.) R. Wilczek
+Verdcourtia lignosa (L.) Wilczek</t>
         </is>
       </c>
     </row>
